--- a/data/trans_dic/P12B1_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales 16-59 años</t>
+          <t>Población que requiere cuidados especiales 16-59 años (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,11; 44,14</t>
+          <t>1,48; 4,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,97; 49,48</t>
+          <t>1,19; 4,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 38,26</t>
+          <t>1,26; 3,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,54; 57,32</t>
+          <t>3,23; 7,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 38,34</t>
+          <t>3,42; 6,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 28,99</t>
+          <t>3,37; 7,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 31,02</t>
+          <t>1,4; 3,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,69; 41,9</t>
+          <t>1,11; 2,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,26; 36,47</t>
+          <t>1,05; 2,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 33,8</t>
+          <t>2,19; 4,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,39; 30,49</t>
+          <t>1,92; 4,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,91; 44,39</t>
+          <t>3,65; 6,76</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 3,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 3,1</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 2,76</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 5,54</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 4,94</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 6,42</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 49,61</t>
+          <t>1,14; 3,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,25; 64,07</t>
+          <t>1,52; 4,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,11; 61,69</t>
+          <t>1,82; 5,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,17; 65,06</t>
+          <t>1,46; 4,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 33,23</t>
+          <t>1,4; 6,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,83; 38,48</t>
+          <t>2,33; 8,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,22; 44,91</t>
+          <t>1,27; 3,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 45,84</t>
+          <t>1,43; 3,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 35,53</t>
+          <t>2,57; 5,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,73; 44,87</t>
+          <t>1,52; 4,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,94; 47,63</t>
+          <t>1,55; 7,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 45,31</t>
+          <t>0,74; 4,88</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 3,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 3,72</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 4,68</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 4,02</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 5,45</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 5,89</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,58%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>19,11%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,3%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>12,12%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>14,55%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,45</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 33,6</t>
+          <t>0,5; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,77</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,79; 11,17</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 11,83</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 33,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 38,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>0,47; 4,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 5,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 7,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 20,13</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,16; 26,09</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 27,95</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 3,35</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 3,45</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 7,81</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 37,45</t>
+          <t>1,54; 3,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,61; 42,61</t>
+          <t>1,6; 3,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 41,03</t>
+          <t>1,6; 3,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,59; 54,18</t>
+          <t>2,89; 5,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 27,32</t>
+          <t>3,25; 6,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 27,75</t>
+          <t>3,46; 6,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 31,7</t>
+          <t>1,34; 2,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,27; 37,42</t>
+          <t>1,47; 2,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 29,73</t>
+          <t>1,96; 3,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 31,55</t>
+          <t>2,27; 4,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,15; 32,32</t>
+          <t>2,12; 4,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,49; 42,37</t>
+          <t>3,29; 5,76</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 2,75</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 2,88</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 3,06</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 4,46</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 4,74</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 5,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales 16-59 años (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42397</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35833</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35084</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>80668</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11209</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10320</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41835</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34875</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31061</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>60033</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7080</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10568</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>84232</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>70709</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>66145</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>140701</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>18289</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>20888</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24413; 66793</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19482; 68594</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20698; 56865</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>52281; 118278</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7848; 15916</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6948; 15274</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25254; 64618</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20366; 52666</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19075; 48108</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38428; 86224</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4574; 10354</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7649; 14177</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>59338; 114903</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>47964; 107723</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>46125; 95262</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>101892; 186954</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>13977; 23091</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>16336; 26703</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30153</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38907</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42225</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36336</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2370</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3288</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30911</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32139</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51993</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36597</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>61064</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>71046</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>94218</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>72933</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15611; 50693</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20958; 60909</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25045; 71077</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19822; 63352</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1015; 5014</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1541; 5859</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17641; 52885</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19609; 52386</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>35520; 76272</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20873; 61260</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1017; 4792</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>451; 2961</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>39026; 91671</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>49386; 102306</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>71083; 128842</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>46504; 109673</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2534; 7517</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2629; 7470</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6423</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7711</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18818</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6154</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12008</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14776</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6423</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13865</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>14087</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>33594</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23378</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2107; 22562</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10358</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7261; 45248</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1944; 18939</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4332; 24262</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5449; 31435</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20192</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5049; 27848</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6032; 28707</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>17721; 62467</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>78973</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>82451</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>79388</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>135823</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13579</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13608</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72746</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>73169</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>95062</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>111406</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9403</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11858</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>151719</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>155620</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>174450</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>247228</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>22983</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>25466</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>53052; 113460</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>55217; 118774</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>54960; 115390</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>97615; 185070</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9803; 18296</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9412; 18469</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>48467; 103812</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52975; 100598</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>70695; 124539</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>80062; 150322</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6444; 12968</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8883; 15585</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>114771; 193618</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>120767; 203255</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>137076; 215591</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>200448; 308086</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17929; 28679</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>20763; 31818</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
